--- a/Assets/StreamingAssets/graphics/Prodedural Token Generator.xlsx
+++ b/Assets/StreamingAssets/graphics/Prodedural Token Generator.xlsx
@@ -1082,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F645"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="F1" t="str">
         <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$1,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1122,12 +1122,12 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f>A7</f>
-        <v>damselfly</v>
+        <f>A16</f>
+        <v>louse</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="0">CONCATENATE("[CREATURE_GRAPHICS:",$B$1,$E$2,$C2,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly1][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse1][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly2][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse2][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,11 +1159,11 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly3][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse3][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly4][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse4][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly5][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse5][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly6][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse6][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly7][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse7][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly8][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse8][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly9][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse9][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly10][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse10][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly11][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse11][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly12][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse12][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly13][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse13][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly14][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse14][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly15][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse15][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly16][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse16][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly17][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse17][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly18][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse18][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly19][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse19][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly20][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse20][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly21][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse21][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly22][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse22][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly23][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse23][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly24][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse24][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly25][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse25][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly26][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse26][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly27][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse27][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly28][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse28][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly29][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse29][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly30][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse30][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly31][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse31][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly32][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse32][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly33][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse33][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly34][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse34][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly35][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse35][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly36][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse36][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly37][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse37][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly38][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse38][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly39][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse39][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly40][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse40][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly41][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse41][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly42][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse42][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly43][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse43][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly44][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse44][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly45][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse45][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly46][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse46][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly47][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse47][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly48][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse48][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly49][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse49][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly50][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse50][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly51][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse51][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly52][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse52][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly53][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse53][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly54][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse54][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly55][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse55][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly56][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse56][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly57][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse57][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly58][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse58][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly59][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse59][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly60][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse60][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly61][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse61][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly62][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse62][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly63][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse63][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly64][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse64][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" ref="F66:F129" si="1">CONCATENATE("[CREATURE_GRAPHICS:",$B$1,$E$2,$C66,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly65][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse65][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F67" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly66][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse66][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly67][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse67][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly68][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse68][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly69][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse69][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly70][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse70][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly71][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse71][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly72][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse72][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly73][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse73][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly74][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse74][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly75][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse75][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly76][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse76][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly77][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse77][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly78][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse78][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly79][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse79][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly80][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse80][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly81][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse81][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly82][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse82][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly83][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse83][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly84][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse84][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly85][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse85][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly86][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse86][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly87][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse87][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly88][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse88][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly89][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse89][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly90][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse90][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly91][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse91][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly92][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse92][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly93][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse93][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly94][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse94][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly95][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse95][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly96][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse96][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly97][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse97][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly98][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse98][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly99][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse99][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly100][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse100][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly101][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse101][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly102][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse102][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly103][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse103][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly104][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse104][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly105][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse105][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly106][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse106][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly107][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse107][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly108][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse108][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly109][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse109][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly110][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse110][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly111][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse111][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly112][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse112][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly113][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse113][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly114][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse114][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly115][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse115][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly116][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse116][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly117][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse117][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly118][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse118][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly119][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse119][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly120][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse120][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly121][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse121][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly122][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse122][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly123][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse123][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly124][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse124][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly125][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse125][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly126][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse126][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly127][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse127][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
-        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_damselfly128][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <v>[CREATURE_GRAPHICS:FORGOTTEN_BEAST_louse128][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -2683,8 +2683,8 @@
         <v>129</v>
       </c>
       <c r="F130" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F130:F161" si="2">CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:TITAN_louse][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,8 +2692,8 @@
         <v>130</v>
       </c>
       <c r="F131" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C2,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly1][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse1][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -2701,8 +2701,8 @@
         <v>131</v>
       </c>
       <c r="F132" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C3,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly2][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse2][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2710,8 +2710,8 @@
         <v>132</v>
       </c>
       <c r="F133" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C4,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly3][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse3][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,8 +2719,8 @@
         <v>133</v>
       </c>
       <c r="F134" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C5,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly4][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse4][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -2728,8 +2728,8 @@
         <v>134</v>
       </c>
       <c r="F135" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C6,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly5][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse5][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -2737,8 +2737,8 @@
         <v>135</v>
       </c>
       <c r="F136" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C7,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly6][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse6][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -2746,8 +2746,8 @@
         <v>136</v>
       </c>
       <c r="F137" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C8,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly7][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse7][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,8 +2755,8 @@
         <v>137</v>
       </c>
       <c r="F138" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C9,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly8][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse8][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,8 +2764,8 @@
         <v>138</v>
       </c>
       <c r="F139" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C10,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly9][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse9][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -2773,8 +2773,8 @@
         <v>139</v>
       </c>
       <c r="F140" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C11,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly10][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse10][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -2782,8 +2782,8 @@
         <v>140</v>
       </c>
       <c r="F141" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C12,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly11][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse11][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,8 +2791,8 @@
         <v>141</v>
       </c>
       <c r="F142" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C13,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly12][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse12][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,8 +2800,8 @@
         <v>142</v>
       </c>
       <c r="F143" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C14,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly13][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse13][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -2809,8 +2809,8 @@
         <v>143</v>
       </c>
       <c r="F144" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C15,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly14][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse14][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -2818,8 +2818,8 @@
         <v>144</v>
       </c>
       <c r="F145" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C16,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly15][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse15][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -2827,8 +2827,8 @@
         <v>145</v>
       </c>
       <c r="F146" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C17,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly16][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse16][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,8 +2836,8 @@
         <v>146</v>
       </c>
       <c r="F147" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C18,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly17][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse17][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -2845,8 +2845,8 @@
         <v>147</v>
       </c>
       <c r="F148" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C19,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly18][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse18][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -2854,8 +2854,8 @@
         <v>148</v>
       </c>
       <c r="F149" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C20,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly19][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse19][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -2863,8 +2863,8 @@
         <v>149</v>
       </c>
       <c r="F150" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C21,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly20][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse20][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,8 +2872,8 @@
         <v>150</v>
       </c>
       <c r="F151" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C22,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly21][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse21][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -2881,8 +2881,8 @@
         <v>151</v>
       </c>
       <c r="F152" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C23,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly22][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse22][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -2890,8 +2890,8 @@
         <v>152</v>
       </c>
       <c r="F153" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C24,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly23][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse23][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -2899,8 +2899,8 @@
         <v>153</v>
       </c>
       <c r="F154" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C25,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly24][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse24][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,8 +2908,8 @@
         <v>154</v>
       </c>
       <c r="F155" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C26,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly25][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse25][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,8 +2917,8 @@
         <v>155</v>
       </c>
       <c r="F156" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C27,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly26][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse26][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -2926,8 +2926,8 @@
         <v>156</v>
       </c>
       <c r="F157" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C28,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly27][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse27][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,8 +2935,8 @@
         <v>157</v>
       </c>
       <c r="F158" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C29,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly28][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse28][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,8 +2944,8 @@
         <v>158</v>
       </c>
       <c r="F159" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C30,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly29][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse29][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,8 +2953,8 @@
         <v>159</v>
       </c>
       <c r="F160" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C31,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly30][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse30][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -2962,8 +2962,8 @@
         <v>160</v>
       </c>
       <c r="F161" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C32,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly31][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="2"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse31][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,8 +2971,8 @@
         <v>161</v>
       </c>
       <c r="F162" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C33,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly32][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F162:F193" si="3">CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C33,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:TITAN_louse32][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -2980,8 +2980,8 @@
         <v>162</v>
       </c>
       <c r="F163" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C34,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly33][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse33][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,8 +2989,8 @@
         <v>163</v>
       </c>
       <c r="F164" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C35,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly34][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse34][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -2998,8 +2998,8 @@
         <v>164</v>
       </c>
       <c r="F165" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C36,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly35][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse35][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,8 +3007,8 @@
         <v>165</v>
       </c>
       <c r="F166" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C37,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly36][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse36][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,8 +3016,8 @@
         <v>166</v>
       </c>
       <c r="F167" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C38,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly37][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse37][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,8 +3025,8 @@
         <v>167</v>
       </c>
       <c r="F168" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C39,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly38][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse38][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3034,8 +3034,8 @@
         <v>168</v>
       </c>
       <c r="F169" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C40,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly39][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse39][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -3043,8 +3043,8 @@
         <v>169</v>
       </c>
       <c r="F170" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C41,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly40][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse40][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,8 +3052,8 @@
         <v>170</v>
       </c>
       <c r="F171" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C42,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly41][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse41][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,8 +3061,8 @@
         <v>171</v>
       </c>
       <c r="F172" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C43,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly42][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse42][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,8 +3070,8 @@
         <v>172</v>
       </c>
       <c r="F173" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C44,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly43][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse43][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,8 +3079,8 @@
         <v>173</v>
       </c>
       <c r="F174" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C45,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly44][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse44][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -3088,8 +3088,8 @@
         <v>174</v>
       </c>
       <c r="F175" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C46,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly45][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse45][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,8 +3097,8 @@
         <v>175</v>
       </c>
       <c r="F176" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C47,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly46][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse46][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -3106,8 +3106,8 @@
         <v>176</v>
       </c>
       <c r="F177" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C48,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly47][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse47][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,8 +3115,8 @@
         <v>177</v>
       </c>
       <c r="F178" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C49,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly48][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse48][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,8 +3124,8 @@
         <v>178</v>
       </c>
       <c r="F179" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C50,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly49][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse49][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -3133,8 +3133,8 @@
         <v>179</v>
       </c>
       <c r="F180" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C51,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly50][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse50][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,8 +3142,8 @@
         <v>180</v>
       </c>
       <c r="F181" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C52,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly51][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse51][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,8 +3151,8 @@
         <v>181</v>
       </c>
       <c r="F182" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C53,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly52][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse52][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,8 +3160,8 @@
         <v>182</v>
       </c>
       <c r="F183" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C54,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly53][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse53][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,8 +3169,8 @@
         <v>183</v>
       </c>
       <c r="F184" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C55,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly54][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse54][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -3178,8 +3178,8 @@
         <v>184</v>
       </c>
       <c r="F185" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C56,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly55][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse55][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -3187,8 +3187,8 @@
         <v>185</v>
       </c>
       <c r="F186" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C57,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly56][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse56][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,8 +3196,8 @@
         <v>186</v>
       </c>
       <c r="F187" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C58,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly57][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse57][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,8 +3205,8 @@
         <v>187</v>
       </c>
       <c r="F188" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C59,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly58][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse58][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,8 +3214,8 @@
         <v>188</v>
       </c>
       <c r="F189" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C60,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly59][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse59][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -3223,8 +3223,8 @@
         <v>189</v>
       </c>
       <c r="F190" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C61,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly60][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse60][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,8 +3232,8 @@
         <v>190</v>
       </c>
       <c r="F191" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C62,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly61][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse61][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -3241,8 +3241,8 @@
         <v>191</v>
       </c>
       <c r="F192" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C63,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly62][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse62][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -3250,8 +3250,8 @@
         <v>192</v>
       </c>
       <c r="F193" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C64,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly63][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="3"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse63][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,8 +3259,8 @@
         <v>193</v>
       </c>
       <c r="F194" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C65,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly64][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F194:F225" si="4">CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C65,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:TITAN_louse64][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,8 +3268,8 @@
         <v>194</v>
       </c>
       <c r="F195" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C66,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly65][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse65][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,8 +3277,8 @@
         <v>195</v>
       </c>
       <c r="F196" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C67,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly66][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse66][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -3286,8 +3286,8 @@
         <v>196</v>
       </c>
       <c r="F197" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C68,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly67][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse67][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,8 +3295,8 @@
         <v>197</v>
       </c>
       <c r="F198" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C69,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly68][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse68][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,8 +3304,8 @@
         <v>198</v>
       </c>
       <c r="F199" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C70,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly69][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse69][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,8 +3313,8 @@
         <v>199</v>
       </c>
       <c r="F200" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C71,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly70][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse70][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -3322,8 +3322,8 @@
         <v>200</v>
       </c>
       <c r="F201" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C72,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly71][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse71][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -3331,8 +3331,8 @@
         <v>201</v>
       </c>
       <c r="F202" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C73,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly72][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse72][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -3340,8 +3340,8 @@
         <v>202</v>
       </c>
       <c r="F203" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C74,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly73][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse73][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -3349,8 +3349,8 @@
         <v>203</v>
       </c>
       <c r="F204" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C75,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly74][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse74][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,8 +3358,8 @@
         <v>204</v>
       </c>
       <c r="F205" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C76,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly75][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse75][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -3367,8 +3367,8 @@
         <v>205</v>
       </c>
       <c r="F206" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C77,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly76][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse76][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,8 +3376,8 @@
         <v>206</v>
       </c>
       <c r="F207" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C78,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly77][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse77][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,8 +3385,8 @@
         <v>207</v>
       </c>
       <c r="F208" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C79,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly78][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse78][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,8 +3394,8 @@
         <v>208</v>
       </c>
       <c r="F209" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C80,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly79][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse79][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,8 +3403,8 @@
         <v>209</v>
       </c>
       <c r="F210" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C81,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly80][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse80][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,8 +3412,8 @@
         <v>210</v>
       </c>
       <c r="F211" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C82,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly81][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse81][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -3421,8 +3421,8 @@
         <v>211</v>
       </c>
       <c r="F212" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C83,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly82][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse82][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -3430,8 +3430,8 @@
         <v>212</v>
       </c>
       <c r="F213" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C84,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly83][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse83][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -3439,8 +3439,8 @@
         <v>213</v>
       </c>
       <c r="F214" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C85,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly84][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse84][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -3448,8 +3448,8 @@
         <v>214</v>
       </c>
       <c r="F215" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C86,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly85][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse85][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -3457,8 +3457,8 @@
         <v>215</v>
       </c>
       <c r="F216" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C87,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly86][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse86][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -3466,8 +3466,8 @@
         <v>216</v>
       </c>
       <c r="F217" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C88,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly87][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse87][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,8 +3475,8 @@
         <v>217</v>
       </c>
       <c r="F218" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C89,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly88][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse88][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,8 +3484,8 @@
         <v>218</v>
       </c>
       <c r="F219" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C90,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly89][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse89][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -3493,8 +3493,8 @@
         <v>219</v>
       </c>
       <c r="F220" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C91,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly90][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse90][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,8 +3502,8 @@
         <v>220</v>
       </c>
       <c r="F221" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C92,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly91][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse91][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,8 +3511,8 @@
         <v>221</v>
       </c>
       <c r="F222" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C93,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly92][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse92][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -3520,8 +3520,8 @@
         <v>222</v>
       </c>
       <c r="F223" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C94,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly93][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse93][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -3529,8 +3529,8 @@
         <v>223</v>
       </c>
       <c r="F224" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C95,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly94][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse94][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -3538,8 +3538,8 @@
         <v>224</v>
       </c>
       <c r="F225" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C96,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly95][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="4"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse95][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -3547,8 +3547,8 @@
         <v>225</v>
       </c>
       <c r="F226" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C97,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly96][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F226:F257" si="5">CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C97,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:TITAN_louse96][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -3556,2516 +3556,2516 @@
         <v>226</v>
       </c>
       <c r="F227" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C98,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly97][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse97][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F228" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C99,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly98][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse98][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F229" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C100,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly99][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse99][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F230" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C101,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly100][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse100][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F231" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C102,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly101][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse101][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F232" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C103,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly102][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse102][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F233" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C104,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly103][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse103][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F234" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C105,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly104][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse104][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F235" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C106,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly105][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse105][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F236" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C107,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly106][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse106][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F237" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C108,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly107][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse107][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F238" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C109,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly108][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse108][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F239" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C110,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly109][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse109][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F240" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C111,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly110][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse110][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F241" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C112,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly111][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse111][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F242" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C113,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly112][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse112][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="243" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F243" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C114,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly113][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse113][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="244" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F244" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C115,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly114][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse114][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="245" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F245" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C116,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly115][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse115][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="246" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F246" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C117,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly116][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse116][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="247" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F247" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C118,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly117][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse117][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="248" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F248" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C119,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly118][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse118][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="249" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F249" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C120,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly119][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse119][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="250" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F250" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C121,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly120][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse120][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="251" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F251" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C122,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly121][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse121][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="252" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F252" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C123,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly122][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse122][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="253" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F253" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C124,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly123][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse123][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="254" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F254" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C125,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly124][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse124][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="255" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F255" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C126,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly125][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse125][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="256" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F256" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C127,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly126][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse126][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="257" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F257" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C128,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly127][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="5"/>
+        <v>[CREATURE_GRAPHICS:TITAN_louse127][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="258" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F258" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C129,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:TITAN_damselfly128][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F258:F289" si="6">CONCATENATE("[CREATURE_GRAPHICS:",$B$2,$E$2,$C129,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:TITAN_louse128][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="259" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F259" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F259:F290" si="7">CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:DEMON_louse][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="260" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F260" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C2,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly1][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse1][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="261" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F261" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C3,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly2][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse2][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="262" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F262" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C4,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly3][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse3][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="263" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F263" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C5,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly4][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse4][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="264" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F264" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C6,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly5][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse5][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="265" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F265" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C7,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly6][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse6][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="266" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F266" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C8,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly7][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse7][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="267" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F267" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C9,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly8][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse8][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="268" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F268" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C10,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly9][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse9][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="269" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F269" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C11,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly10][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse10][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="270" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F270" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C12,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly11][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse11][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="271" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F271" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C13,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly12][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse12][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="272" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F272" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C14,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly13][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse13][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="273" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F273" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C15,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly14][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse14][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="274" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F274" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C16,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly15][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse15][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="275" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F275" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C17,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly16][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse16][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="276" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F276" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C18,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly17][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse17][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="277" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F277" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C19,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly18][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse18][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="278" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F278" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C20,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly19][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse19][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="279" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F279" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C21,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly20][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse20][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="280" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F280" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C22,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly21][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse21][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="281" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F281" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C23,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly22][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse22][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="282" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F282" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C24,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly23][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse23][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="283" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F283" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C25,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly24][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse24][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="284" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F284" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C26,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly25][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse25][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="285" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F285" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C27,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly26][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse26][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="286" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F286" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C28,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly27][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse27][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="287" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F287" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C29,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly28][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse28][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="288" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F288" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C30,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly29][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse29][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="289" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F289" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C31,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly30][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse30][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="290" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F290" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C32,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly31][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="7"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse31][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="291" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F291" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C33,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly32][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F291:F322" si="8">CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C33,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:DEMON_louse32][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="292" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F292" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C34,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly33][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse33][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="293" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F293" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C35,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly34][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse34][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="294" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F294" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C36,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly35][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse35][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F295" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C37,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly36][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse36][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="296" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F296" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C38,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly37][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse37][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="297" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F297" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C39,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly38][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse38][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="298" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F298" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C40,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly39][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse39][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="299" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F299" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C41,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly40][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse40][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="300" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F300" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C42,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly41][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse41][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="301" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F301" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C43,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly42][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse42][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="302" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F302" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C44,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly43][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse43][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="303" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F303" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C45,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly44][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse44][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="304" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F304" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C46,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly45][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse45][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="305" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F305" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C47,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly46][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse46][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="306" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F306" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C48,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly47][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse47][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="307" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F307" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C49,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly48][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse48][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="308" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F308" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C50,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly49][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse49][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="309" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F309" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C51,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly50][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse50][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="310" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F310" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C52,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly51][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse51][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="311" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F311" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C53,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly52][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse52][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="312" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F312" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C54,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly53][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse53][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="313" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F313" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C55,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly54][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse54][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="314" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F314" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C56,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly55][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse55][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="315" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F315" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C57,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly56][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse56][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="316" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F316" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C58,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly57][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse57][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="317" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F317" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C59,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly58][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse58][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="318" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F318" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C60,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly59][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse59][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="319" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F319" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C61,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly60][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse60][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="320" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F320" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C62,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly61][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse61][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="321" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F321" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C63,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly62][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse62][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="322" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F322" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C64,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly63][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="8"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse63][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="323" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F323" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C65,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly64][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F323:F354" si="9">CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C65,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:DEMON_louse64][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="324" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F324" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C66,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly65][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse65][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="325" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F325" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C67,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly66][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse66][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="326" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F326" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C68,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly67][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse67][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="327" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F327" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C69,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly68][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse68][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="328" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F328" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C70,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly69][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse69][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="329" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F329" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C71,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly70][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse70][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="330" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F330" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C72,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly71][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse71][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="331" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F331" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C73,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly72][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse72][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="332" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F332" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C74,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly73][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse73][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="333" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F333" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C75,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly74][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse74][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="334" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F334" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C76,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly75][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse75][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="335" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F335" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C77,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly76][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse76][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="336" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F336" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C78,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly77][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse77][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="337" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F337" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C79,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly78][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse78][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="338" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F338" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C80,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly79][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse79][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="339" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F339" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C81,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly80][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse80][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="340" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F340" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C82,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly81][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse81][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="341" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F341" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C83,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly82][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse82][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="342" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F342" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C84,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly83][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse83][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="343" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F343" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C85,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly84][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse84][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="344" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F344" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C86,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly85][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse85][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="345" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F345" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C87,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly86][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse86][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="346" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F346" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C88,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly87][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse87][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="347" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F347" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C89,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly88][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse88][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="348" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F348" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C90,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly89][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse89][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="349" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F349" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C91,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly90][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse90][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="350" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F350" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C92,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly91][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse91][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="351" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F351" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C93,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly92][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse92][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="352" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F352" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C94,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly93][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse93][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="353" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F353" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C95,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly94][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse94][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="354" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F354" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C96,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly95][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="9"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse95][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="355" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F355" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C97,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly96][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F355:F386" si="10">CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C97,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:DEMON_louse96][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="356" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F356" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C98,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly97][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse97][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="357" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F357" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C99,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly98][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse98][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="358" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F358" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C100,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly99][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse99][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="359" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F359" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C101,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly100][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse100][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="360" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F360" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C102,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly101][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse101][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="361" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F361" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C103,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly102][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse102][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="362" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F362" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C104,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly103][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse103][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="363" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F363" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C105,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly104][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse104][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="364" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F364" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C106,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly105][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse105][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="365" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F365" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C107,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly106][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse106][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="366" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F366" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C108,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly107][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse107][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="367" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F367" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C109,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly108][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse108][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="368" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F368" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C110,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly109][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse109][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="369" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F369" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C111,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly110][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse110][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="370" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F370" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C112,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly111][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse111][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="371" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F371" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C113,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly112][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse112][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="372" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F372" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C114,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly113][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse113][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="373" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F373" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C115,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly114][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse114][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="374" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F374" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C116,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly115][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse115][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="375" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F375" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C117,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly116][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse116][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="376" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F376" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C118,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly117][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse117][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="377" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F377" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C119,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly118][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse118][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="378" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F378" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C120,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly119][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse119][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="379" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F379" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C121,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly120][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse120][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="380" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F380" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C122,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly121][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse121][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="381" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F381" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C123,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly122][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse122][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="382" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F382" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C124,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly123][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse123][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="383" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F383" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C125,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly124][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse124][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="384" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F384" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C126,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly125][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse125][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="385" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F385" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C127,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly126][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse126][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="386" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F386" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C128,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly127][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="10"/>
+        <v>[CREATURE_GRAPHICS:DEMON_louse127][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="387" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F387" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C129,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:DEMON_damselfly128][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F387:F418" si="11">CONCATENATE("[CREATURE_GRAPHICS:",$B$3,$E$2,$C129,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:DEMON_louse128][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="388" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F388" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F388:F419" si="12">CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="389" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F389" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C2,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly1][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse1][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="390" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F390" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C3,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly2][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse2][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="391" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F391" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C4,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly3][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse3][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="392" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F392" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C5,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly4][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse4][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="393" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F393" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C6,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly5][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse5][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="394" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F394" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C7,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly6][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse6][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="395" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F395" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C8,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly7][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse7][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="396" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F396" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C9,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly8][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse8][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="397" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F397" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C10,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly9][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse9][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="398" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F398" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C11,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly10][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse10][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="399" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F399" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C12,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly11][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse11][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="400" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F400" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C13,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly12][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse12][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="401" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F401" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C14,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly13][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse13][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="402" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F402" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C15,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly14][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse14][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="403" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F403" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C16,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly15][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse15][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="404" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F404" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C17,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly16][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse16][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="405" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F405" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C18,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly17][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse17][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="406" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F406" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C19,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly18][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse18][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="407" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F407" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C20,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly19][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse19][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="408" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F408" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C21,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly20][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse20][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="409" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F409" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C22,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly21][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse21][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="410" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F410" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C23,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly22][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse22][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="411" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F411" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C24,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly23][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse23][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="412" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F412" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C25,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly24][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse24][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="413" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F413" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C26,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly25][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse25][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="414" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F414" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C27,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly26][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse26][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="415" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F415" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C28,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly27][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse27][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="416" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F416" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C29,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly28][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse28][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="417" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F417" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C30,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly29][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse29][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="418" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F418" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C31,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly30][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse30][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="419" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F419" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C32,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly31][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="12"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse31][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="420" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F420" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C33,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly32][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F420:F451" si="13">CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C33,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse32][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="421" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F421" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C34,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly33][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse33][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="422" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F422" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C35,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly34][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse34][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="423" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F423" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C36,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly35][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse35][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="424" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F424" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C37,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly36][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse36][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="425" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F425" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C38,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly37][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse37][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="426" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F426" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C39,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly38][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse38][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="427" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F427" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C40,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly39][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse39][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="428" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F428" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C41,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly40][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse40][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="429" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F429" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C42,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly41][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse41][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="430" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F430" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C43,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly42][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse42][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="431" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F431" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C44,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly43][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse43][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="432" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F432" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C45,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly44][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse44][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="433" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F433" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C46,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly45][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse45][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="434" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F434" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C47,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly46][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse46][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="435" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F435" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C48,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly47][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse47][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="436" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F436" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C49,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly48][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse48][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="437" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F437" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C50,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly49][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse49][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="438" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F438" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C51,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly50][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse50][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="439" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F439" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C52,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly51][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse51][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="440" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F440" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C53,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly52][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse52][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="441" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F441" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C54,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly53][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse53][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="442" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F442" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C55,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly54][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse54][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="443" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F443" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C56,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly55][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse55][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="444" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F444" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C57,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly56][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse56][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="445" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F445" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C58,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly57][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse57][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="446" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F446" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C59,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly58][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse58][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="447" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F447" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C60,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly59][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse59][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="448" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F448" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C61,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly60][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse60][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="449" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F449" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C62,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly61][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse61][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="450" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F450" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C63,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly62][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse62][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="451" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F451" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C64,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly63][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="13"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse63][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="452" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F452" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C65,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly64][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F452:F483" si="14">CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C65,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse64][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="453" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F453" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C66,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly65][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse65][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="454" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F454" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C67,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly66][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse66][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="455" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F455" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C68,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly67][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse67][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="456" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F456" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C69,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly68][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse68][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="457" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F457" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C70,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly69][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse69][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="458" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F458" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C71,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly70][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse70][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="459" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F459" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C72,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly71][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse71][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="460" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F460" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C73,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly72][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse72][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="461" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F461" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C74,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly73][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse73][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="462" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F462" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C75,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly74][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse74][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="463" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F463" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C76,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly75][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse75][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="464" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F464" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C77,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly76][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse76][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="465" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F465" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C78,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly77][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse77][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="466" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F466" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C79,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly78][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse78][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="467" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F467" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C80,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly79][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse79][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="468" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F468" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C81,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly80][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse80][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="469" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F469" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C82,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly81][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse81][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="470" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F470" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C83,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly82][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse82][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="471" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F471" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C84,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly83][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse83][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="472" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F472" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C85,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly84][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse84][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="473" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F473" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C86,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly85][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse85][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="474" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F474" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C87,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly86][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse86][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="475" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F475" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C88,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly87][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse87][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="476" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F476" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C89,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly88][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse88][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="477" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F477" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C90,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly89][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse89][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="478" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F478" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C91,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly90][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse90][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="479" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F479" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C92,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly91][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse91][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="480" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F480" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C93,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly92][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse92][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="481" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F481" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C94,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly93][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse93][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="482" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F482" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C95,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly94][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse94][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="483" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F483" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C96,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly95][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="14"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse95][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="484" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F484" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C97,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly96][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F484:F515" si="15">CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C97,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse96][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="485" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F485" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C98,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly97][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse97][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="486" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F486" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C99,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly98][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse98][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="487" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F487" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C100,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly99][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse99][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="488" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F488" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C101,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly100][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse100][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="489" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F489" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C102,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly101][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse101][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="490" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F490" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C103,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly102][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse102][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="491" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F491" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C104,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly103][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse103][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="492" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F492" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C105,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly104][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse104][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="493" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F493" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C106,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly105][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse105][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="494" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F494" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C107,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly106][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse106][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="495" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F495" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C108,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly107][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse107][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="496" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F496" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C109,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly108][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse108][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="497" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F497" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C110,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly109][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse109][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="498" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F498" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C111,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly110][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse110][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="499" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F499" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C112,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly111][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse111][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="500" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F500" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C113,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly112][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse112][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="501" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F501" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C114,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly113][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse113][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="502" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F502" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C115,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly114][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse114][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="503" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F503" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C116,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly115][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse115][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="504" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F504" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C117,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly116][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse116][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="505" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F505" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C118,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly117][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse117][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="506" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F506" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C119,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly118][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse118][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="507" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F507" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C120,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly119][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse119][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="508" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F508" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C121,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly120][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse120][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="509" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F509" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C122,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly121][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse121][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="510" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F510" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C123,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly122][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse122][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="511" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F511" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C124,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly123][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse123][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="512" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F512" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C125,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly124][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse124][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="513" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F513" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C126,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly125][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse125][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="514" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F514" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C127,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly126][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse126][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="515" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F515" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C128,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly127][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="15"/>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse127][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="516" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F516" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C129,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_damselfly128][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F516:F547" si="16">CONCATENATE("[CREATURE_GRAPHICS:",$B$4,$E$2,$C129,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:NIGHT_CREATURE_louse128][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="517" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F517" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F517:F548" si="17">CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C1,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:HFlouse][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="518" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F518" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C2,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly1][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse1][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="519" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F519" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C3,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly2][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse2][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="520" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F520" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C4,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly3][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse3][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="521" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F521" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C5,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly4][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse4][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="522" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F522" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C6,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly5][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse5][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="523" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F523" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C7,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly6][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse6][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="524" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F524" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C8,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly7][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse7][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="525" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F525" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C9,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly8][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse8][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="526" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F526" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C10,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly9][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse9][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="527" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F527" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C11,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly10][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse10][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="528" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F528" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C12,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly11][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse11][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="529" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F529" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C13,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly12][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse12][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="530" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F530" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C14,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly13][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse13][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="531" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F531" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C15,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly14][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse14][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="532" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F532" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C16,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly15][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse15][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="533" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F533" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C17,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly16][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse16][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="534" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F534" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C18,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly17][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse17][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="535" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F535" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C19,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly18][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse18][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="536" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F536" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C20,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly19][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse19][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="537" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F537" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C21,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly20][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse20][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="538" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F538" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C22,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly21][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse21][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="539" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F539" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C23,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly22][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse22][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="540" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F540" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C24,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly23][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse23][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="541" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F541" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C25,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly24][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse24][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="542" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F542" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C26,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly25][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse25][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="543" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F543" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C27,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly26][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse26][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="544" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F544" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C28,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly27][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse27][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="545" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F545" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C29,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly28][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse28][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="546" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F546" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C30,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly29][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse29][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="547" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F547" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C31,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly30][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse30][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="548" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F548" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C32,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly31][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="17"/>
+        <v>[CREATURE_GRAPHICS:HFlouse31][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="549" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F549" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C33,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly32][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F549:F580" si="18">CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C33,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:HFlouse32][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="550" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F550" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C34,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly33][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse33][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="551" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F551" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C35,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly34][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse34][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="552" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F552" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C36,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly35][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse35][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="553" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F553" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C37,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly36][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse36][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="554" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F554" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C38,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly37][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse37][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="555" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F555" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C39,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly38][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse38][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="556" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F556" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C40,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly39][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse39][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="557" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F557" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C41,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly40][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse40][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="558" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F558" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C42,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly41][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse41][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="559" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F559" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C43,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly42][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse42][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="560" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F560" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C44,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly43][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse43][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="561" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F561" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C45,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly44][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse44][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="562" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F562" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C46,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly45][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse45][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="563" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F563" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C47,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly46][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse46][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="564" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F564" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C48,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly47][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse47][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="565" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F565" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C49,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly48][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse48][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="566" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F566" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C50,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly49][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse49][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="567" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F567" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C51,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly50][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse50][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="568" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F568" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C52,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly51][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse51][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="569" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F569" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C53,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly52][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse52][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="570" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F570" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C54,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly53][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse53][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="571" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F571" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C55,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly54][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse54][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="572" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F572" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C56,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly55][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse55][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="573" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F573" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C57,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly56][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse56][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="574" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F574" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C58,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly57][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse57][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="575" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F575" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C59,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly58][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse58][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="576" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F576" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C60,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly59][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse59][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="577" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F577" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C61,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly60][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse60][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="578" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F578" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C62,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly61][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse61][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="579" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F579" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C63,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly62][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse62][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="580" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F580" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C64,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly63][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="18"/>
+        <v>[CREATURE_GRAPHICS:HFlouse63][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="581" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F581" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C65,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly64][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F581:F612" si="19">CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C65,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:HFlouse64][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="582" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F582" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C66,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly65][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse65][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="583" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F583" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C67,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly66][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse66][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="584" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F584" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C68,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly67][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse67][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="585" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F585" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C69,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly68][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse68][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="586" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F586" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C70,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly69][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse69][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="587" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F587" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C71,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly70][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse70][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="588" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F588" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C72,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly71][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse71][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="589" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F589" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C73,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly72][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse72][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="590" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F590" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C74,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly73][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse73][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="591" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F591" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C75,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly74][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse74][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="592" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F592" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C76,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly75][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse75][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="593" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F593" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C77,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly76][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse76][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="594" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F594" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C78,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly77][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse77][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="595" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F595" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C79,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly78][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse78][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="596" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F596" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C80,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly79][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse79][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="597" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F597" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C81,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly80][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse80][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="598" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F598" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C82,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly81][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse81][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="599" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F599" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C83,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly82][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse82][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="600" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F600" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C84,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly83][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse83][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="601" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F601" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C85,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly84][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse84][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="602" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F602" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C86,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly85][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse85][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="603" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F603" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C87,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly86][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse86][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="604" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F604" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C88,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly87][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse87][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="605" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F605" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C89,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly88][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse88][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="606" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F606" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C90,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly89][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse89][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="607" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F607" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C91,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly90][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse90][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="608" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F608" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C92,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly91][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse91][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="609" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F609" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C93,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly92][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse92][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="610" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F610" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C94,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly93][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse93][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="611" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F611" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C95,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly94][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse94][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="612" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F612" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C96,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly95][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="19"/>
+        <v>[CREATURE_GRAPHICS:HFlouse95][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="613" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F613" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C97,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly96][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F613:F644" si="20">CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C97,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:HFlouse96][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="614" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F614" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C98,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly97][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse97][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="615" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F615" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C99,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly98][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse98][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="616" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F616" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C100,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly99][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse99][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="617" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F617" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C101,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly100][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse100][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="618" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F618" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C102,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly101][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse101][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="619" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F619" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C103,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly102][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse102][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="620" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F620" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C104,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly103][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse103][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="621" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F621" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C105,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly104][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse104][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="622" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F622" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C106,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly105][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse105][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="623" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F623" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C107,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly106][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse106][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="624" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F624" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C108,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly107][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse107][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="625" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F625" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C109,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly108][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse108][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="626" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F626" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C110,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly109][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse109][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="627" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F627" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C111,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly110][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse110][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="628" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F628" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C112,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly111][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse111][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="629" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F629" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C113,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly112][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse112][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="630" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F630" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C114,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly113][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse113][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="631" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F631" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C115,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly114][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse114][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="632" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F632" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C116,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly115][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse115][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="633" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F633" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C117,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly116][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse116][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="634" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F634" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C118,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly117][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse117][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="635" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F635" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C119,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly118][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse118][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="636" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F636" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C120,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly119][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse119][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="637" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F637" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C121,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly120][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse120][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="638" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F638" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C122,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly121][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse121][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="639" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F639" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C123,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly122][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse122][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="640" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F640" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C124,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly123][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse123][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="641" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F641" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C125,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly124][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse124][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="642" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F642" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C126,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly125][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse125][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="643" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F643" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C127,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly126][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse126][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="644" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F644" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C128,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly127][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" si="20"/>
+        <v>[CREATURE_GRAPHICS:HFlouse127][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
     <row r="645" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F645" t="str">
-        <f>CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C129,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
-        <v>[CREATURE_GRAPHICS:HFdamselfly128][DEFAULT:PROCEDURAL_NEW:6:0:ADD_COLOR:DEFAULT]</v>
+        <f t="shared" ref="F645:F676" si="21">CONCATENATE("[CREATURE_GRAPHICS:",$B$5,$E$2,$C129,"][DEFAULT:",$E$3,":",$E$4,":",$E$5,":",$E$6,":",$E$7,"]")</f>
+        <v>[CREATURE_GRAPHICS:HFlouse128][DEFAULT:PROCEDURAL_NEW:15:0:ADD_COLOR:DEFAULT]</v>
       </c>
     </row>
   </sheetData>
